--- a/Connected Office Web Application-User Acceptance Testing/Connected Office Test Data.xlsx
+++ b/Connected Office Web Application-User Acceptance Testing/Connected Office Test Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Desktop\2022 Uni\Sem 2\CMPG323\CMPG-323-Project-4-34494847\Connected Office Web Application-User Acceptance Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F79901-A76C-4A12-9977-D58E47F9CDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9468C7E-4605-400B-A17C-DD3C5E0599E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Connected Office Web Application-User Acceptance Testing/Connected Office Test Data.xlsx
+++ b/Connected Office Web Application-User Acceptance Testing/Connected Office Test Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Desktop\2022 Uni\Sem 2\CMPG323\CMPG-323-Project-4-34494847\Connected Office Web Application-User Acceptance Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9468C7E-4605-400B-A17C-DD3C5E0599E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB86B4D-8542-4884-8899-97A15395EE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
